--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="720" windowWidth="25590" windowHeight="16050" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="43440" yWindow="1340" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="114">
   <si>
     <t>Ref Des</t>
   </si>
@@ -401,6 +404,9 @@
   </si>
   <si>
     <t>CE02SHSP-SP001-09-PARADJ000</t>
+  </si>
+  <si>
+    <t>corrected cal values: [0.00283856, 0.000119430, 2.41799e-06, 231.190, -0.328248, -55.9998, 4.55859]</t>
   </si>
 </sst>
 </file>
@@ -2320,23 +2326,23 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2417,31 +2423,31 @@
         <v>-124.29882000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -2450,7 +2456,7 @@
         <v>44.635860000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -2459,55 +2465,55 @@
         <v>-124.29882000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2516,38 +2522,33 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="17" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="57.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2587,7 +2588,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>106</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>97</v>
       </c>
       <c r="F3" s="40">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>7</v>
@@ -2616,7 +2617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>106</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>97</v>
       </c>
       <c r="F4" s="40">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>8</v>
@@ -2645,7 +2646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>106</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>97</v>
       </c>
       <c r="F5" s="40">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>6</v>
@@ -2670,14 +2671,16 @@
       <c r="H5" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>113</v>
+      </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>106</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="40">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>62</v>
@@ -2706,7 +2709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2717,7 +2720,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>91</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>91</v>
       </c>
@@ -2773,7 +2776,7 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>91</v>
       </c>
@@ -2800,7 +2803,7 @@
       </c>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>91</v>
       </c>
@@ -2827,7 +2830,7 @@
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>91</v>
       </c>
@@ -2854,7 +2857,7 @@
       </c>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>91</v>
       </c>
@@ -2881,7 +2884,7 @@
       </c>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>91</v>
       </c>
@@ -2908,7 +2911,7 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>91</v>
       </c>
@@ -2935,7 +2938,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="23"/>
@@ -2946,7 +2949,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>107</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>107</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="23"/>
@@ -3015,7 +3018,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>108</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>108</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>108</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>108</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>108</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>108</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="23"/>
@@ -3229,7 +3232,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>109</v>
       </c>
@@ -3256,7 +3259,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>109</v>
       </c>
@@ -3283,7 +3286,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>109</v>
       </c>
@@ -3310,7 +3313,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="23"/>
@@ -3321,7 +3324,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>110</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>110</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>110</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>110</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>110</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>110</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>110</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>110</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>110</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>110</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -3622,7 +3625,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>111</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>111</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="23"/>
@@ -3691,7 +3694,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>112</v>
       </c>
@@ -3718,7 +3721,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>112</v>
       </c>
@@ -3745,7 +3748,7 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>112</v>
       </c>
@@ -3772,7 +3775,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31" t="s">
         <v>92</v>
       </c>
@@ -3795,24 +3798,19 @@
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G50" s="16"/>
       <c r="H50" s="32"/>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:E54"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" scale="89" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3824,9 +3822,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -3930,7 +3928,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4346,7 +4344,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4450,7 +4448,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4554,7 +4552,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4762,7 +4760,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4866,7 +4864,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -4970,7 +4968,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -5074,7 +5072,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -5178,7 +5176,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5282,7 +5280,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5386,7 +5384,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5490,7 +5488,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5594,7 +5592,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5698,7 +5696,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5802,7 +5800,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5906,7 +5904,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -6010,7 +6008,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -6114,7 +6112,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6322,7 +6320,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6426,7 +6424,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6530,7 +6528,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6634,7 +6632,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6738,7 +6736,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6842,7 +6840,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -6946,7 +6944,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -7050,7 +7048,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -7154,7 +7152,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -7258,7 +7256,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7362,7 +7360,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7466,7 +7464,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7570,7 +7568,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7674,7 +7672,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7778,7 +7776,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7882,7 +7880,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -7986,7 +7984,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -8090,7 +8088,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -8194,7 +8192,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8298,7 +8296,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8402,7 +8400,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8506,7 +8504,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8610,7 +8608,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8714,7 +8712,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8818,7 +8816,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8922,7 +8920,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -9026,7 +9024,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -9130,7 +9128,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -9234,7 +9232,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9338,7 +9336,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9442,7 +9440,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9546,7 +9544,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9650,7 +9648,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9754,7 +9752,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9858,7 +9856,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -9962,7 +9960,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -10066,7 +10064,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -10170,7 +10168,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -10274,7 +10272,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10378,7 +10376,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10482,7 +10480,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10586,7 +10584,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10690,7 +10688,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10794,7 +10792,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10898,7 +10896,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -11002,7 +11000,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -11106,7 +11104,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -11210,7 +11208,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11314,7 +11312,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11418,7 +11416,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11522,7 +11520,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11626,7 +11624,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11730,7 +11728,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11834,7 +11832,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -11938,7 +11936,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -12042,7 +12040,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -12146,7 +12144,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -12250,7 +12248,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12354,7 +12352,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12458,7 +12456,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12562,7 +12560,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12666,7 +12664,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12772,11 +12770,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12788,9 +12781,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12894,7 +12887,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -12998,7 +12991,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -13102,7 +13095,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -13206,7 +13199,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13310,7 +13303,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13414,7 +13407,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13518,7 +13511,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13622,7 +13615,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13726,7 +13719,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13830,7 +13823,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -13934,7 +13927,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -14038,7 +14031,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -14142,7 +14135,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -14246,7 +14239,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14350,7 +14343,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14454,7 +14447,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14558,7 +14551,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14662,7 +14655,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14766,7 +14759,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14870,7 +14863,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -14974,7 +14967,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -15078,7 +15071,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -15182,7 +15175,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15286,7 +15279,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15390,7 +15383,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15494,7 +15487,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15598,7 +15591,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15702,7 +15695,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15806,7 +15799,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15910,7 +15903,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -16014,7 +16007,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -16118,7 +16111,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -16222,7 +16215,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16326,7 +16319,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16430,7 +16423,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16534,7 +16527,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16638,7 +16631,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16742,7 +16735,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16846,7 +16839,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -16950,7 +16943,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -17054,7 +17047,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -17158,7 +17151,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -17262,7 +17255,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17366,7 +17359,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17470,7 +17463,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17574,7 +17567,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17678,7 +17671,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17782,7 +17775,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17886,7 +17879,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -17990,7 +17983,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -18094,7 +18087,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -18198,7 +18191,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18302,7 +18295,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18406,7 +18399,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18510,7 +18503,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18614,7 +18607,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18718,7 +18711,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18822,7 +18815,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18926,7 +18919,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -19030,7 +19023,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -19134,7 +19127,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -19238,7 +19231,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19342,7 +19335,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19446,7 +19439,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19550,7 +19543,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19654,7 +19647,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19758,7 +19751,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19862,7 +19855,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -19966,7 +19959,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -20070,7 +20063,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -20174,7 +20167,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20278,7 +20271,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20382,7 +20375,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20486,7 +20479,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20590,7 +20583,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20694,7 +20687,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20798,7 +20791,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20902,7 +20895,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -21006,7 +20999,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -21110,7 +21103,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -21214,7 +21207,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21318,7 +21311,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21422,7 +21415,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21526,7 +21519,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21630,7 +21623,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>
@@ -21736,10 +21729,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43440" yWindow="1340" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="-180" yWindow="720" windowWidth="25590" windowHeight="16050" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -27,11 +27,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -52,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t>Ref Des</t>
   </si>
@@ -404,9 +401,6 @@
   </si>
   <si>
     <t>CE02SHSP-SP001-09-PARADJ000</t>
-  </si>
-  <si>
-    <t>corrected cal values: [0.00283856, 0.000119430, 2.41799e-06, 231.190, -0.328248, -55.9998, 4.55859]</t>
   </si>
 </sst>
 </file>
@@ -2326,23 +2320,23 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -2380,7 +2374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2423,31 +2417,31 @@
         <v>-124.29882000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -2456,7 +2450,7 @@
         <v>44.635860000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -2465,55 +2459,55 @@
         <v>-124.29882000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2522,33 +2516,38 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="5" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2588,7 +2587,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>106</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>97</v>
       </c>
       <c r="F3" s="40">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>7</v>
@@ -2617,7 +2616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>106</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>97</v>
       </c>
       <c r="F4" s="40">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>8</v>
@@ -2646,7 +2645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>106</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>97</v>
       </c>
       <c r="F5" s="40">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>6</v>
@@ -2671,16 +2670,14 @@
       <c r="H5" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>113</v>
-      </c>
+      <c r="I5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>106</v>
       </c>
@@ -2697,7 +2694,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="40">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>62</v>
@@ -2709,7 +2706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2720,7 +2717,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>91</v>
       </c>
@@ -2749,7 +2746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>91</v>
       </c>
@@ -2776,7 +2773,7 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>91</v>
       </c>
@@ -2803,7 +2800,7 @@
       </c>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>91</v>
       </c>
@@ -2830,7 +2827,7 @@
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>91</v>
       </c>
@@ -2857,7 +2854,7 @@
       </c>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>91</v>
       </c>
@@ -2884,7 +2881,7 @@
       </c>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>91</v>
       </c>
@@ -2911,7 +2908,7 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>91</v>
       </c>
@@ -2938,7 +2935,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="23"/>
@@ -2949,7 +2946,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>107</v>
       </c>
@@ -2978,7 +2975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>107</v>
       </c>
@@ -3007,7 +3004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="23"/>
@@ -3018,7 +3015,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>108</v>
       </c>
@@ -3047,7 +3044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>108</v>
       </c>
@@ -3076,7 +3073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>108</v>
       </c>
@@ -3105,7 +3102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>108</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>108</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>108</v>
       </c>
@@ -3192,7 +3189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3221,7 +3218,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="23"/>
@@ -3232,7 +3229,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>109</v>
       </c>
@@ -3259,7 +3256,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>109</v>
       </c>
@@ -3286,7 +3283,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>109</v>
       </c>
@@ -3313,7 +3310,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="23"/>
@@ -3324,7 +3321,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>110</v>
       </c>
@@ -3353,7 +3350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>110</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>110</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>110</v>
       </c>
@@ -3440,7 +3437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>110</v>
       </c>
@@ -3469,7 +3466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>110</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>110</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>110</v>
       </c>
@@ -3556,7 +3553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>110</v>
       </c>
@@ -3585,7 +3582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>110</v>
       </c>
@@ -3614,7 +3611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -3625,7 +3622,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>111</v>
       </c>
@@ -3654,7 +3651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>111</v>
       </c>
@@ -3683,7 +3680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="23"/>
@@ -3694,7 +3691,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>112</v>
       </c>
@@ -3721,7 +3718,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>112</v>
       </c>
@@ -3748,7 +3745,7 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>112</v>
       </c>
@@ -3775,7 +3772,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>92</v>
       </c>
@@ -3798,19 +3795,24 @@
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G50" s="16"/>
       <c r="H50" s="32"/>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:E54"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" scale="89" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3822,9 +3824,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -3928,7 +3930,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -4032,7 +4034,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -4136,7 +4138,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4448,7 +4450,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4656,7 +4658,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4760,7 +4762,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5488,7 +5490,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5592,7 +5594,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5696,7 +5698,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5800,7 +5802,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5904,7 +5906,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6424,7 +6426,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6736,7 +6738,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -6944,7 +6946,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -7048,7 +7050,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -7152,7 +7154,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -7256,7 +7258,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7360,7 +7362,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7464,7 +7466,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7568,7 +7570,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7672,7 +7674,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7880,7 +7882,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -7984,7 +7986,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -8088,7 +8090,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -8192,7 +8194,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8400,7 +8402,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8504,7 +8506,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8608,7 +8610,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8920,7 +8922,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -9024,7 +9026,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -9128,7 +9130,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -9232,7 +9234,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9336,7 +9338,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9752,7 +9754,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9856,7 +9858,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -9960,7 +9962,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -10064,7 +10066,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10376,7 +10378,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10480,7 +10482,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10792,7 +10794,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10896,7 +10898,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -11000,7 +11002,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -11104,7 +11106,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -11208,7 +11210,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11312,7 +11314,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11416,7 +11418,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11520,7 +11522,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11624,7 +11626,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11728,7 +11730,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11832,7 +11834,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -11936,7 +11938,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -12040,7 +12042,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -12144,7 +12146,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -12248,7 +12250,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12352,7 +12354,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12456,7 +12458,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12560,7 +12562,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12664,7 +12666,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12770,6 +12772,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12781,9 +12788,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12887,7 +12894,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -12991,7 +12998,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -13095,7 +13102,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -13199,7 +13206,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13303,7 +13310,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13407,7 +13414,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13511,7 +13518,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13615,7 +13622,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13719,7 +13726,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13823,7 +13830,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -13927,7 +13934,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -14031,7 +14038,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -14135,7 +14142,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -14239,7 +14246,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14343,7 +14350,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14447,7 +14454,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14551,7 +14558,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14655,7 +14662,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14759,7 +14766,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14863,7 +14870,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -14967,7 +14974,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -15071,7 +15078,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -15175,7 +15182,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15279,7 +15286,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15383,7 +15390,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15487,7 +15494,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15591,7 +15598,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15695,7 +15702,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15799,7 +15806,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15903,7 +15910,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -16007,7 +16014,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -16111,7 +16118,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -16215,7 +16222,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16319,7 +16326,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16423,7 +16430,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16527,7 +16534,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16631,7 +16638,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16735,7 +16742,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16839,7 +16846,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -16943,7 +16950,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -17047,7 +17054,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -17151,7 +17158,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -17255,7 +17262,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17359,7 +17366,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17463,7 +17470,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17567,7 +17574,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17671,7 +17678,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17775,7 +17782,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17879,7 +17886,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -17983,7 +17990,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -18087,7 +18094,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -18191,7 +18198,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18295,7 +18302,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18399,7 +18406,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18503,7 +18510,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18607,7 +18614,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18711,7 +18718,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18815,7 +18822,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18919,7 +18926,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -19023,7 +19030,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -19127,7 +19134,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -19231,7 +19238,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19335,7 +19342,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19439,7 +19446,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19543,7 +19550,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19647,7 +19654,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19751,7 +19758,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19855,7 +19862,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -19959,7 +19966,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -20063,7 +20070,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -20167,7 +20174,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20271,7 +20278,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20375,7 +20382,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20479,7 +20486,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20583,7 +20590,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20687,7 +20694,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20791,7 +20798,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20895,7 +20902,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -20999,7 +21006,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -21103,7 +21110,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -21207,7 +21214,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21311,7 +21318,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21415,7 +21422,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21519,7 +21526,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21623,7 +21630,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>
@@ -21729,5 +21736,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>